--- a/Code/Results/Cases/Case_7_59/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_59/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.02675993802454</v>
+        <v>19.23255235147017</v>
       </c>
       <c r="C2">
-        <v>16.43826055302221</v>
+        <v>12.92848475000174</v>
       </c>
       <c r="D2">
-        <v>3.116982074910152</v>
+        <v>3.687341351542534</v>
       </c>
       <c r="E2">
-        <v>10.46840747163255</v>
+        <v>12.1365597740247</v>
       </c>
       <c r="F2">
-        <v>30.59708828571298</v>
+        <v>19.52207962363762</v>
       </c>
       <c r="G2">
-        <v>2.048882949703394</v>
+        <v>2.055103335251148</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>19.00217111065028</v>
+        <v>17.42833428830798</v>
       </c>
       <c r="N2">
-        <v>11.54978244774967</v>
+        <v>11.0542472229306</v>
       </c>
       <c r="O2">
-        <v>23.54812258785239</v>
+        <v>14.979173333451</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.3964298969392</v>
+        <v>17.97115909948889</v>
       </c>
       <c r="C3">
-        <v>15.30818895110501</v>
+        <v>12.19781282392538</v>
       </c>
       <c r="D3">
-        <v>3.217477920316757</v>
+        <v>3.585096559478155</v>
       </c>
       <c r="E3">
-        <v>9.88740454060197</v>
+        <v>11.47271631303517</v>
       </c>
       <c r="F3">
-        <v>29.02357976322118</v>
+        <v>18.71760878202376</v>
       </c>
       <c r="G3">
-        <v>2.05896842413385</v>
+        <v>2.06087615614806</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.67895815496458</v>
+        <v>16.29052371038929</v>
       </c>
       <c r="N3">
-        <v>11.82179570771742</v>
+        <v>11.24516858862823</v>
       </c>
       <c r="O3">
-        <v>22.50248936695004</v>
+        <v>14.57405806444509</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.34311432619246</v>
+        <v>17.15199947561605</v>
       </c>
       <c r="C4">
-        <v>14.57879722886851</v>
+        <v>11.72638379181168</v>
       </c>
       <c r="D4">
-        <v>3.279570651336609</v>
+        <v>3.520466968371475</v>
       </c>
       <c r="E4">
-        <v>9.526875661138364</v>
+        <v>11.05982527144376</v>
       </c>
       <c r="F4">
-        <v>28.05296202802791</v>
+        <v>18.22762177011354</v>
       </c>
       <c r="G4">
-        <v>2.065298751050826</v>
+        <v>2.064526641572699</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.82618892960742</v>
+        <v>15.55445450570366</v>
       </c>
       <c r="N4">
-        <v>11.99172896966847</v>
+        <v>11.36552124181753</v>
       </c>
       <c r="O4">
-        <v>21.86659673502036</v>
+        <v>14.33699741057138</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.90054353020136</v>
+        <v>16.80690813719828</v>
       </c>
       <c r="C5">
-        <v>14.27250816134736</v>
+        <v>11.52860742814825</v>
       </c>
       <c r="D5">
-        <v>3.304999359779008</v>
+        <v>3.493688966344202</v>
       </c>
       <c r="E5">
-        <v>9.379113914622556</v>
+        <v>10.89043407157187</v>
       </c>
       <c r="F5">
-        <v>27.65668027760264</v>
+        <v>18.0292311547123</v>
       </c>
       <c r="G5">
-        <v>2.067915504578398</v>
+        <v>2.066041650625067</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.46837975373746</v>
+        <v>15.24503771357438</v>
       </c>
       <c r="N5">
-        <v>12.06174657822066</v>
+        <v>11.41536287598267</v>
       </c>
       <c r="O5">
-        <v>21.6092270599113</v>
+        <v>14.24338531573068</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.82624421157684</v>
+        <v>16.74892364586375</v>
       </c>
       <c r="C6">
-        <v>14.22109874732815</v>
+        <v>11.49542701118972</v>
       </c>
       <c r="D6">
-        <v>3.309230135490189</v>
+        <v>3.489216624954769</v>
       </c>
       <c r="E6">
-        <v>9.35453119718505</v>
+        <v>10.86224473216323</v>
       </c>
       <c r="F6">
-        <v>27.59084567906282</v>
+        <v>17.99637486400806</v>
       </c>
       <c r="G6">
-        <v>2.068352322722434</v>
+        <v>2.066294893657874</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.40833931073167</v>
+        <v>15.19308667445889</v>
       </c>
       <c r="N6">
-        <v>12.07342037818514</v>
+        <v>11.42368749823358</v>
       </c>
       <c r="O6">
-        <v>21.56660464005008</v>
+        <v>14.22802321566066</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.33719990090461</v>
+        <v>17.14739117093098</v>
       </c>
       <c r="C7">
-        <v>14.57470332990266</v>
+        <v>11.72373934557642</v>
       </c>
       <c r="D7">
-        <v>3.279913048343302</v>
+        <v>3.520107582277053</v>
       </c>
       <c r="E7">
-        <v>9.524886136293294</v>
+        <v>11.05754511010313</v>
       </c>
       <c r="F7">
-        <v>28.04762009249713</v>
+        <v>18.22494061370331</v>
       </c>
       <c r="G7">
-        <v>2.065333888219297</v>
+        <v>2.064546961561831</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.82140529415377</v>
+        <v>15.55031996828471</v>
       </c>
       <c r="N7">
-        <v>11.99267009413664</v>
+        <v>11.36619018210179</v>
       </c>
       <c r="O7">
-        <v>21.86311830348325</v>
+        <v>14.33572274524955</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.47535722416282</v>
+        <v>18.80686203455595</v>
       </c>
       <c r="C8">
-        <v>16.05590665829248</v>
+        <v>12.68131332307781</v>
       </c>
       <c r="D8">
-        <v>3.151569864822153</v>
+        <v>3.652485558692705</v>
       </c>
       <c r="E8">
-        <v>10.26891850791394</v>
+        <v>11.90886887234611</v>
       </c>
       <c r="F8">
-        <v>30.05567018446143</v>
+        <v>19.24404036005119</v>
       </c>
       <c r="G8">
-        <v>2.052333352010922</v>
+        <v>2.057072286942221</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>18.55419171801971</v>
+        <v>17.04375837642934</v>
       </c>
       <c r="N8">
-        <v>11.64298872773805</v>
+        <v>11.11943453103506</v>
       </c>
       <c r="O8">
-        <v>23.18643424447583</v>
+        <v>14.83710028917931</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26.2625428935298</v>
+        <v>21.70925995020656</v>
       </c>
       <c r="C9">
-        <v>18.68490306799115</v>
+        <v>14.37634826153813</v>
       </c>
       <c r="D9">
-        <v>2.901617493811559</v>
+        <v>3.896421867177687</v>
       </c>
       <c r="E9">
-        <v>11.69511386837441</v>
+        <v>13.52984319786598</v>
       </c>
       <c r="F9">
-        <v>33.94635088030395</v>
+        <v>21.26274762681382</v>
       </c>
       <c r="G9">
-        <v>2.027811232536716</v>
+        <v>2.043218367436083</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.64043577960042</v>
+        <v>19.67793187294084</v>
       </c>
       <c r="N9">
-        <v>10.97880062617093</v>
+        <v>10.65987557580365</v>
       </c>
       <c r="O9">
-        <v>25.82303947636408</v>
+        <v>15.9103033080984</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.81146783497979</v>
+        <v>23.63116810584354</v>
       </c>
       <c r="C10">
-        <v>20.45809507949821</v>
+        <v>15.50891738053007</v>
       </c>
       <c r="D10">
-        <v>2.717026148880027</v>
+        <v>4.064944096142336</v>
       </c>
       <c r="E10">
-        <v>12.88592043022996</v>
+        <v>14.85060054573628</v>
       </c>
       <c r="F10">
-        <v>36.76826519635487</v>
+        <v>22.7456707451786</v>
       </c>
       <c r="G10">
-        <v>2.010198178135472</v>
+        <v>2.03347518199948</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>23.73042276679209</v>
+        <v>21.43825465219487</v>
       </c>
       <c r="N10">
-        <v>10.50177153530504</v>
+        <v>10.33644349720743</v>
       </c>
       <c r="O10">
-        <v>27.78057639213699</v>
+        <v>16.75002497746476</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.9237562744209</v>
+        <v>24.46077351714074</v>
       </c>
       <c r="C11">
-        <v>21.23285923388318</v>
+        <v>15.99965991407752</v>
       </c>
       <c r="D11">
-        <v>2.632373187006199</v>
+        <v>4.139082493192025</v>
       </c>
       <c r="E11">
-        <v>13.42838980055322</v>
+        <v>15.4533554792182</v>
       </c>
       <c r="F11">
-        <v>38.04464715258629</v>
+        <v>23.4183162723505</v>
       </c>
       <c r="G11">
-        <v>2.002224612672714</v>
+        <v>2.029124151732083</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>24.6458658533922</v>
+        <v>22.2022446358678</v>
       </c>
       <c r="N11">
-        <v>10.28670375363002</v>
+        <v>10.19227420780412</v>
       </c>
       <c r="O11">
-        <v>28.67593331051736</v>
+        <v>17.14246918573464</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.33847796246679</v>
+        <v>24.76858535198846</v>
       </c>
       <c r="C12">
-        <v>21.5218937088756</v>
+        <v>16.18198588555335</v>
       </c>
       <c r="D12">
-        <v>2.600178875997369</v>
+        <v>4.166779401928536</v>
       </c>
       <c r="E12">
-        <v>13.63179358403273</v>
+        <v>15.67865212016125</v>
       </c>
       <c r="F12">
-        <v>38.52712002595332</v>
+        <v>23.67263895744542</v>
       </c>
       <c r="G12">
-        <v>1.999206144568134</v>
+        <v>2.027487032020193</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>24.98774592998423</v>
+        <v>22.48636536867814</v>
       </c>
       <c r="N12">
-        <v>10.20551211905413</v>
+        <v>10.13809972496362</v>
       </c>
       <c r="O12">
-        <v>29.01581555882953</v>
+        <v>17.29253325241358</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.24944294449038</v>
+        <v>24.70257322585535</v>
       </c>
       <c r="C13">
-        <v>21.45983452451953</v>
+        <v>16.14287444580145</v>
       </c>
       <c r="D13">
-        <v>2.607119281367277</v>
+        <v>4.160831392583842</v>
       </c>
       <c r="E13">
-        <v>13.58807266267865</v>
+        <v>15.63025971592243</v>
       </c>
       <c r="F13">
-        <v>38.42324508310125</v>
+        <v>23.61788493076461</v>
       </c>
       <c r="G13">
-        <v>1.999856263652236</v>
+        <v>2.027839166487517</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>24.91432330863609</v>
+        <v>22.42540374530719</v>
       </c>
       <c r="N13">
-        <v>10.22298745919262</v>
+        <v>10.14974860688204</v>
       </c>
       <c r="O13">
-        <v>28.9425759021642</v>
+        <v>17.26015024291415</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.95800357648888</v>
+        <v>24.48622398147036</v>
       </c>
       <c r="C14">
-        <v>21.25672406612655</v>
+        <v>16.01473018043562</v>
       </c>
       <c r="D14">
-        <v>2.629727540436743</v>
+        <v>4.141368782799204</v>
       </c>
       <c r="E14">
-        <v>13.44516295528255</v>
+        <v>15.47194921174954</v>
       </c>
       <c r="F14">
-        <v>38.0843563292873</v>
+        <v>23.4392479581215</v>
       </c>
       <c r="G14">
-        <v>2.001976291120966</v>
+        <v>2.028989260991937</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>24.67408645792949</v>
+        <v>22.22572271300172</v>
       </c>
       <c r="N14">
-        <v>10.2800192009007</v>
+        <v>10.18780886865638</v>
       </c>
       <c r="O14">
-        <v>28.7038779328048</v>
+        <v>17.15478614065464</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.77865487051134</v>
+        <v>24.35288051523456</v>
       </c>
       <c r="C15">
-        <v>21.13175364763716</v>
+        <v>15.93578182329275</v>
       </c>
       <c r="D15">
-        <v>2.643556570597851</v>
+        <v>4.12939777528707</v>
       </c>
       <c r="E15">
-        <v>13.3573712564134</v>
+        <v>15.37459868661237</v>
       </c>
       <c r="F15">
-        <v>37.87667209323406</v>
+        <v>23.32977366540416</v>
       </c>
       <c r="G15">
-        <v>2.003274845176318</v>
+        <v>2.029695061406772</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>24.52632164745497</v>
+        <v>22.10274026329898</v>
       </c>
       <c r="N15">
-        <v>10.31498459499586</v>
+        <v>10.21117631707652</v>
       </c>
       <c r="O15">
-        <v>28.55778199364918</v>
+        <v>17.09043570521502</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.73785281253119</v>
+        <v>23.57605933844846</v>
       </c>
       <c r="C16">
-        <v>20.40684021708982</v>
+        <v>15.47635453974846</v>
       </c>
       <c r="D16">
-        <v>2.722541298603089</v>
+        <v>4.060046892595299</v>
       </c>
       <c r="E16">
-        <v>12.85017321351128</v>
+        <v>14.81078881868421</v>
       </c>
       <c r="F16">
-        <v>36.68471665396734</v>
+        <v>22.7016620435423</v>
       </c>
       <c r="G16">
-        <v>2.010719667044201</v>
+        <v>2.033761069243569</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>23.66991069055971</v>
+        <v>21.38759451973376</v>
       </c>
       <c r="N16">
-        <v>10.51586309644597</v>
+        <v>10.34592429443492</v>
       </c>
       <c r="O16">
-        <v>27.72216978362944</v>
+        <v>16.72458366107988</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.08747020769387</v>
+        <v>23.08811835231934</v>
       </c>
       <c r="C17">
-        <v>19.95412226936968</v>
+        <v>15.18824836250237</v>
       </c>
       <c r="D17">
-        <v>2.770793112071019</v>
+        <v>4.016844968144322</v>
       </c>
       <c r="E17">
-        <v>12.53517445078606</v>
+        <v>14.45951435763589</v>
       </c>
       <c r="F17">
-        <v>35.95171184233569</v>
+        <v>22.31574483028503</v>
       </c>
       <c r="G17">
-        <v>2.015293635643945</v>
+        <v>2.036275435601639</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>23.13568940003159</v>
+        <v>20.93952429820985</v>
       </c>
       <c r="N17">
-        <v>10.63956918596826</v>
+        <v>10.42934116269606</v>
       </c>
       <c r="O17">
-        <v>27.21086043631433</v>
+        <v>16.50278336909121</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.70892109542117</v>
+        <v>22.80325673685002</v>
       </c>
       <c r="C18">
-        <v>19.69071575411517</v>
+        <v>15.02023285800003</v>
       </c>
       <c r="D18">
-        <v>2.798484626106976</v>
+        <v>3.9917596375964</v>
       </c>
       <c r="E18">
-        <v>12.35250894626012</v>
+        <v>14.25544974333267</v>
       </c>
       <c r="F18">
-        <v>35.5293994027339</v>
+        <v>22.0935969292849</v>
       </c>
       <c r="G18">
-        <v>2.017928413424545</v>
+        <v>2.03772934921625</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>22.82507675954528</v>
+        <v>20.67833646133127</v>
       </c>
       <c r="N18">
-        <v>10.71090522624582</v>
+        <v>10.47759940250533</v>
       </c>
       <c r="O18">
-        <v>26.9172136900209</v>
+        <v>16.37619562933623</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.57997478558754</v>
+        <v>22.70608183011547</v>
       </c>
       <c r="C19">
-        <v>19.60100640071922</v>
+        <v>14.96294973192269</v>
       </c>
       <c r="D19">
-        <v>2.807851114684722</v>
+        <v>3.983226000224598</v>
       </c>
       <c r="E19">
-        <v>12.29039974099351</v>
+        <v>14.1860064623319</v>
       </c>
       <c r="F19">
-        <v>35.38628636407607</v>
+        <v>22.01835490549909</v>
       </c>
       <c r="G19">
-        <v>2.01882131377387</v>
+        <v>2.038222978437733</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>22.71932604643142</v>
+        <v>20.58930380109535</v>
       </c>
       <c r="N19">
-        <v>10.7350908714707</v>
+        <v>10.49398696947181</v>
       </c>
       <c r="O19">
-        <v>26.8178637692336</v>
+        <v>16.33350621671789</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.15716462237462</v>
+        <v>23.14049572791453</v>
       </c>
       <c r="C20">
-        <v>20.0026253387649</v>
+        <v>15.2191562105609</v>
       </c>
       <c r="D20">
-        <v>2.765663292818111</v>
+        <v>4.021468500386945</v>
       </c>
       <c r="E20">
-        <v>12.56885889589882</v>
+        <v>14.49711644597891</v>
       </c>
       <c r="F20">
-        <v>36.02981369168158</v>
+        <v>22.3568458010421</v>
       </c>
       <c r="G20">
-        <v>2.014806351405417</v>
+        <v>2.036006986449539</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>23.19290207930476</v>
+        <v>20.98758051283956</v>
       </c>
       <c r="N20">
-        <v>10.62638168768422</v>
+        <v>10.42043246555338</v>
       </c>
       <c r="O20">
-        <v>27.26524347488323</v>
+        <v>16.52629274335461</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.04377950948517</v>
+        <v>24.54994241823197</v>
       </c>
       <c r="C21">
-        <v>21.31649865537883</v>
+        <v>16.0524643154147</v>
       </c>
       <c r="D21">
-        <v>2.623091016200913</v>
+        <v>4.147095783064532</v>
       </c>
       <c r="E21">
-        <v>13.48719176388893</v>
+        <v>15.51852795733944</v>
       </c>
       <c r="F21">
-        <v>38.18391756824848</v>
+        <v>23.49172936840537</v>
       </c>
       <c r="G21">
-        <v>2.001353601783772</v>
+        <v>2.028651174477409</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>24.74477696638103</v>
+        <v>22.28451372629282</v>
       </c>
       <c r="N21">
-        <v>10.26326100875677</v>
+        <v>10.17661831138579</v>
       </c>
       <c r="O21">
-        <v>28.77396531018208</v>
+        <v>17.18569499604568</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.23920654942386</v>
+        <v>25.43417583268622</v>
       </c>
       <c r="C22">
-        <v>22.14995370818222</v>
+        <v>16.57664641026231</v>
       </c>
       <c r="D22">
-        <v>2.529088325094316</v>
+        <v>4.226993347468507</v>
       </c>
       <c r="E22">
-        <v>14.07574647439992</v>
+        <v>16.16893161240944</v>
       </c>
       <c r="F22">
-        <v>39.67986203822909</v>
+        <v>24.23112148436691</v>
       </c>
       <c r="G22">
-        <v>1.992564372119644</v>
+        <v>2.023904446999631</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>25.7313314669971</v>
+        <v>23.10196428097566</v>
       </c>
       <c r="N22">
-        <v>10.02738919104629</v>
+        <v>10.01971393020921</v>
       </c>
       <c r="O22">
-        <v>29.79118572348196</v>
+        <v>17.62511452389064</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.60451027071426</v>
+        <v>24.96559305090578</v>
       </c>
       <c r="C23">
-        <v>21.70734811991495</v>
+        <v>16.29874402260432</v>
       </c>
       <c r="D23">
-        <v>2.579347990827359</v>
+        <v>4.184556914298996</v>
       </c>
       <c r="E23">
-        <v>13.76260308796562</v>
+        <v>15.82332369958148</v>
       </c>
       <c r="F23">
-        <v>38.86548184332813</v>
+        <v>23.83673405394787</v>
       </c>
       <c r="G23">
-        <v>1.997256773533937</v>
+        <v>2.026432714743805</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>25.20721343501002</v>
+        <v>22.66839887458503</v>
       </c>
       <c r="N23">
-        <v>10.1531534179397</v>
+        <v>10.10323498640988</v>
       </c>
       <c r="O23">
-        <v>29.23552938396603</v>
+        <v>17.38982639071599</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.12567023925414</v>
+        <v>23.11682943404564</v>
       </c>
       <c r="C24">
-        <v>19.98070687654575</v>
+        <v>15.20519018455258</v>
       </c>
       <c r="D24">
-        <v>2.767982634002707</v>
+        <v>4.019378972680355</v>
       </c>
       <c r="E24">
-        <v>12.55363506076378</v>
+        <v>14.4801231299863</v>
       </c>
       <c r="F24">
-        <v>35.99450665595849</v>
+        <v>22.33826491192327</v>
       </c>
       <c r="G24">
-        <v>2.015026636252099</v>
+        <v>2.036128326151617</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>23.16704709375619</v>
+        <v>20.96586547651297</v>
       </c>
       <c r="N24">
-        <v>10.63234308137595</v>
+        <v>10.42445915017549</v>
       </c>
       <c r="O24">
-        <v>27.24065594066016</v>
+        <v>16.5156612602149</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.28009005233977</v>
+        <v>20.96136003624924</v>
       </c>
       <c r="C25">
-        <v>18.00226012794252</v>
+        <v>13.93755803591033</v>
       </c>
       <c r="D25">
-        <v>2.969250473420529</v>
+        <v>3.8322336087865</v>
       </c>
       <c r="E25">
-        <v>11.31303059146988</v>
+        <v>13.09726557316003</v>
       </c>
       <c r="F25">
-        <v>32.90006384679939</v>
+        <v>20.71589415850354</v>
       </c>
       <c r="G25">
-        <v>2.034359343886956</v>
+        <v>2.046885591652591</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.83768078179492</v>
+        <v>18.99641459143799</v>
       </c>
       <c r="N25">
-        <v>11.15640404664478</v>
+        <v>10.78166127179465</v>
       </c>
       <c r="O25">
-        <v>25.10606456992441</v>
+        <v>15.61071641742002</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_59/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_59/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1211 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.23255235147017</v>
+        <v>17.87114317366413</v>
       </c>
       <c r="C2">
-        <v>12.92848475000174</v>
+        <v>12.6029171908481</v>
       </c>
       <c r="D2">
-        <v>3.687341351542534</v>
+        <v>4.342782334204944</v>
       </c>
       <c r="E2">
-        <v>12.1365597740247</v>
+        <v>15.76055504153692</v>
       </c>
       <c r="F2">
-        <v>19.52207962363762</v>
+        <v>16.09320662676298</v>
       </c>
       <c r="G2">
-        <v>2.055103335251148</v>
+        <v>19.65699731443782</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>2.540466724059054</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>7.520430371516236</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>10.30059661229976</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.42833428830798</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>11.0542472229306</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>14.979173333451</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>16.59139386292445</v>
+      </c>
+      <c r="P2">
+        <v>11.50414279692908</v>
+      </c>
+      <c r="Q2">
+        <v>12.22172127468257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.97115909948889</v>
+        <v>16.77572743568931</v>
       </c>
       <c r="C3">
-        <v>12.19781282392538</v>
+        <v>11.92018377066463</v>
       </c>
       <c r="D3">
-        <v>3.585096559478155</v>
+        <v>4.137448632994883</v>
       </c>
       <c r="E3">
-        <v>11.47271631303517</v>
+        <v>15.08436859159525</v>
       </c>
       <c r="F3">
-        <v>18.71760878202376</v>
+        <v>15.50315477887679</v>
       </c>
       <c r="G3">
-        <v>2.06087615614806</v>
+        <v>18.77795122334492</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+        <v>2.342649548362465</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>7.481990325339546</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>10.39605709660846</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.29052371038929</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>11.24516858862823</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>14.57405806444509</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>15.6380037867148</v>
+      </c>
+      <c r="P3">
+        <v>11.57130132170575</v>
+      </c>
+      <c r="Q3">
+        <v>11.98295336154721</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.15199947561605</v>
+        <v>16.06421898637408</v>
       </c>
       <c r="C4">
-        <v>11.72638379181168</v>
+        <v>11.47958534957041</v>
       </c>
       <c r="D4">
-        <v>3.520466968371475</v>
+        <v>4.005363189997251</v>
       </c>
       <c r="E4">
-        <v>11.05982527144376</v>
+        <v>14.65239537003865</v>
       </c>
       <c r="F4">
-        <v>18.22762177011354</v>
+        <v>15.14164041779445</v>
       </c>
       <c r="G4">
-        <v>2.064526641572699</v>
+        <v>18.23491915577545</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+        <v>2.216823455505065</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>7.462622417068773</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>10.46304122759793</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.55445450570366</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>11.36552124181753</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>14.33699741057138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>15.02247361249802</v>
+      </c>
+      <c r="P4">
+        <v>11.6151528987195</v>
+      </c>
+      <c r="Q4">
+        <v>11.84318534922985</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.80690813719828</v>
+        <v>15.76452591740508</v>
       </c>
       <c r="C5">
-        <v>11.52860742814825</v>
+        <v>11.29475699003537</v>
       </c>
       <c r="D5">
-        <v>3.493688966344202</v>
+        <v>3.950058839220373</v>
       </c>
       <c r="E5">
-        <v>10.89043407157187</v>
+        <v>14.47225937204501</v>
       </c>
       <c r="F5">
-        <v>18.0292311547123</v>
+        <v>14.99474267106419</v>
       </c>
       <c r="G5">
-        <v>2.066041650625067</v>
+        <v>18.01314623922179</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+        <v>2.164435866837337</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>7.455770148815636</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>10.49234755752261</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.24503771357438</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>11.41536287598267</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>14.24338531573068</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>14.76418112937042</v>
+      </c>
+      <c r="P5">
+        <v>11.63366996972236</v>
+      </c>
+      <c r="Q5">
+        <v>11.78797604505316</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.74892364586375</v>
+        <v>15.71417487422857</v>
       </c>
       <c r="C6">
-        <v>11.49542701118972</v>
+        <v>11.26375079318563</v>
       </c>
       <c r="D6">
-        <v>3.489216624954769</v>
+        <v>3.940787377179953</v>
       </c>
       <c r="E6">
-        <v>10.86224473216323</v>
+        <v>14.44210395871448</v>
       </c>
       <c r="F6">
-        <v>17.99637486400806</v>
+        <v>14.97038279988302</v>
       </c>
       <c r="G6">
-        <v>2.066294893657874</v>
+        <v>17.97630264460173</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+        <v>2.155669337781055</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>7.454694423578112</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>10.49733253066736</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.19308667445889</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>11.42368749823358</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>14.22802321566066</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>14.72084551369614</v>
+      </c>
+      <c r="P6">
+        <v>11.63678350955825</v>
+      </c>
+      <c r="Q6">
+        <v>11.77891481954668</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.14739117093098</v>
+        <v>16.06021662423408</v>
       </c>
       <c r="C7">
-        <v>11.72373934557642</v>
+        <v>11.47711392356383</v>
       </c>
       <c r="D7">
-        <v>3.520107582277053</v>
+        <v>4.004623274657025</v>
       </c>
       <c r="E7">
-        <v>11.05754511010313</v>
+        <v>14.64998243579413</v>
       </c>
       <c r="F7">
-        <v>18.22494061370331</v>
+        <v>15.13965728426809</v>
       </c>
       <c r="G7">
-        <v>2.064546961561831</v>
+        <v>18.23192972102822</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+        <v>2.216121461525391</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>7.462525826183104</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>10.46342844837897</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.55031996828471</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>11.36619018210179</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>14.33572274524955</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>15.01902020799485</v>
+      </c>
+      <c r="P7">
+        <v>11.61540001935113</v>
+      </c>
+      <c r="Q7">
+        <v>11.84243366965211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.80686203455595</v>
+        <v>17.50153932966244</v>
       </c>
       <c r="C8">
-        <v>12.68131332307781</v>
+        <v>12.37200464632238</v>
       </c>
       <c r="D8">
-        <v>3.652485558692705</v>
+        <v>4.273248370193</v>
       </c>
       <c r="E8">
-        <v>11.90886887234611</v>
+        <v>15.5309565822948</v>
       </c>
       <c r="F8">
-        <v>19.24404036005119</v>
+        <v>15.88972592380407</v>
       </c>
       <c r="G8">
-        <v>2.057072286942221</v>
+        <v>19.35478170799425</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+        <v>2.473156439891257</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>7.506283112717798</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>10.33171545749418</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.04375837642934</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>11.11943453103506</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>14.83710028917931</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>16.2689850721039</v>
+      </c>
+      <c r="P8">
+        <v>11.52674948270242</v>
+      </c>
+      <c r="Q8">
+        <v>12.13799384859837</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.70925995020656</v>
+        <v>20.01830156968863</v>
       </c>
       <c r="C9">
-        <v>14.37634826153813</v>
+        <v>13.95379201067028</v>
       </c>
       <c r="D9">
-        <v>3.896421867177687</v>
+        <v>4.751192366400234</v>
       </c>
       <c r="E9">
-        <v>13.52984319786598</v>
+        <v>17.12104197893412</v>
       </c>
       <c r="F9">
-        <v>21.26274762681382</v>
+        <v>17.35770224476349</v>
       </c>
       <c r="G9">
-        <v>2.043218367436083</v>
+        <v>21.5173326699604</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+        <v>2.94325370511319</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>7.6267103456105</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>10.14431346199387</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>19.67793187294084</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>10.65987557580365</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>15.9103033080984</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>18.47707229501717</v>
+      </c>
+      <c r="P9">
+        <v>11.37417936331507</v>
+      </c>
+      <c r="Q9">
+        <v>12.77034799433337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.63116810584354</v>
+        <v>21.68717632273644</v>
       </c>
       <c r="C10">
-        <v>15.50891738053007</v>
+        <v>14.99919051938358</v>
       </c>
       <c r="D10">
-        <v>4.064944096142336</v>
+        <v>5.089669576574857</v>
       </c>
       <c r="E10">
-        <v>14.85060054573628</v>
+        <v>17.7085221952137</v>
       </c>
       <c r="F10">
-        <v>22.7456707451786</v>
+        <v>18.33678496164951</v>
       </c>
       <c r="G10">
-        <v>2.03347518199948</v>
+        <v>22.91048173707522</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+        <v>3.245390982477196</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>7.709204770329685</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>10.00901033537846</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>21.43825465219487</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>10.33644349720743</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>16.75002497746476</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>19.6656614891962</v>
+      </c>
+      <c r="P10">
+        <v>11.29699766286821</v>
+      </c>
+      <c r="Q10">
+        <v>13.19402766922584</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.46077351714074</v>
+        <v>22.48219987298349</v>
       </c>
       <c r="C11">
-        <v>15.99965991407752</v>
+        <v>15.38427513903376</v>
       </c>
       <c r="D11">
-        <v>4.139082493192025</v>
+        <v>5.394241163336326</v>
       </c>
       <c r="E11">
-        <v>15.4533554792182</v>
+        <v>14.00418574650235</v>
       </c>
       <c r="F11">
-        <v>23.4183162723505</v>
+        <v>18.0284007005653</v>
       </c>
       <c r="G11">
-        <v>2.029124151732083</v>
+        <v>22.18765906362436</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+        <v>3.778460576543734</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>7.503217105755667</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>9.547572192682647</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>22.2022446358678</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>10.19227420780412</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>17.14246918573464</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>17.76534204869368</v>
+      </c>
+      <c r="P11">
+        <v>11.46447897198605</v>
+      </c>
+      <c r="Q11">
+        <v>12.77706769120764</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.76858535198846</v>
+        <v>22.81635480296765</v>
       </c>
       <c r="C12">
-        <v>16.18198588555335</v>
+        <v>15.49824401725847</v>
       </c>
       <c r="D12">
-        <v>4.166779401928536</v>
+        <v>5.584010113035771</v>
       </c>
       <c r="E12">
-        <v>15.67865212016125</v>
+        <v>11.3364706935992</v>
       </c>
       <c r="F12">
-        <v>23.67263895744542</v>
+        <v>17.54986661609411</v>
       </c>
       <c r="G12">
-        <v>2.027487032020193</v>
+        <v>21.26829114537414</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+        <v>4.769272237207307</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>7.304656668408003</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>9.179512353234678</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>22.48636536867814</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>10.13809972496362</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>17.29253325241358</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>15.90008264166427</v>
+      </c>
+      <c r="P12">
+        <v>11.63915403058173</v>
+      </c>
+      <c r="Q12">
+        <v>12.32146050483835</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.70257322585535</v>
+        <v>22.8272613894954</v>
       </c>
       <c r="C13">
-        <v>16.14287444580145</v>
+        <v>15.41408895687222</v>
       </c>
       <c r="D13">
-        <v>4.160831392583842</v>
+        <v>5.701482303942066</v>
       </c>
       <c r="E13">
-        <v>15.63025971592243</v>
+        <v>9.733078152864632</v>
       </c>
       <c r="F13">
-        <v>23.61788493076461</v>
+        <v>16.89489140029107</v>
       </c>
       <c r="G13">
-        <v>2.027839166487517</v>
+        <v>20.10796525625889</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
+        <v>5.929482603184136</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>7.097820651447176</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>8.862123175186303</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>22.42540374530719</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>10.14974860688204</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>17.26015024291415</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>13.89496500866272</v>
+      </c>
+      <c r="P13">
+        <v>11.82272616453395</v>
+      </c>
+      <c r="Q13">
+        <v>11.79861216818546</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.48622398147036</v>
+        <v>22.68913949539216</v>
       </c>
       <c r="C14">
-        <v>16.01473018043562</v>
+        <v>15.26481966474977</v>
       </c>
       <c r="D14">
-        <v>4.141368782799204</v>
+        <v>5.752347580484169</v>
       </c>
       <c r="E14">
-        <v>15.47194921174954</v>
+        <v>9.534816113114656</v>
       </c>
       <c r="F14">
-        <v>23.4392479581215</v>
+        <v>16.34867831278656</v>
       </c>
       <c r="G14">
-        <v>2.028989260991937</v>
+        <v>19.17034880903058</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
+        <v>6.801666239809583</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>6.949186655260842</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>8.666326927745613</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>22.22572271300172</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>10.18780886865638</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>17.15478614065464</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>12.40477631055604</v>
+      </c>
+      <c r="P14">
+        <v>11.95447686645988</v>
+      </c>
+      <c r="Q14">
+        <v>11.39889713957988</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.35288051523456</v>
+        <v>22.58555883897344</v>
       </c>
       <c r="C15">
-        <v>15.93578182329275</v>
+        <v>15.1852241602965</v>
       </c>
       <c r="D15">
-        <v>4.12939777528707</v>
+        <v>5.749260294431082</v>
       </c>
       <c r="E15">
-        <v>15.37459868661237</v>
+        <v>9.617209507395479</v>
       </c>
       <c r="F15">
-        <v>23.32977366540416</v>
+        <v>16.17784881519216</v>
       </c>
       <c r="G15">
-        <v>2.029695061406772</v>
+        <v>18.88874217219938</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
+        <v>7.001964841543269</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>6.91229641115096</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>8.631171799587708</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>22.10274026329898</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>10.21117631707652</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>17.09043570521502</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>12.00819830541247</v>
+      </c>
+      <c r="P15">
+        <v>11.98543563108554</v>
+      </c>
+      <c r="Q15">
+        <v>11.28860689346018</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.57605933844846</v>
+        <v>21.90576048724969</v>
       </c>
       <c r="C16">
-        <v>15.47635453974846</v>
+        <v>14.76875134450114</v>
       </c>
       <c r="D16">
-        <v>4.060046892595299</v>
+        <v>5.593790017187064</v>
       </c>
       <c r="E16">
-        <v>14.81078881868421</v>
+        <v>9.551291300178685</v>
       </c>
       <c r="F16">
-        <v>22.7016620435423</v>
+        <v>15.85155914840558</v>
       </c>
       <c r="G16">
-        <v>2.033761069243569</v>
+        <v>18.44304058238948</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
+        <v>6.734684933586589</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>6.914579995127072</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>8.75532654445974</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>21.38759451973376</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>10.34592429443492</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>16.72458366107988</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>11.77130213936434</v>
+      </c>
+      <c r="P16">
+        <v>11.96417724396388</v>
+      </c>
+      <c r="Q16">
+        <v>11.19072608256465</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.08811835231934</v>
+        <v>21.44911624328195</v>
       </c>
       <c r="C17">
-        <v>15.18824836250237</v>
+        <v>14.5255087908261</v>
       </c>
       <c r="D17">
-        <v>4.016844968144322</v>
+        <v>5.443771308900817</v>
       </c>
       <c r="E17">
-        <v>14.45951435763589</v>
+        <v>9.439753895354675</v>
       </c>
       <c r="F17">
-        <v>22.31574483028503</v>
+        <v>15.90448796596392</v>
       </c>
       <c r="G17">
-        <v>2.036275435601639</v>
+        <v>18.62574969792326</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
+        <v>6.017690077397665</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>6.996955706502185</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>8.953615294775167</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>20.93952429820985</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>10.42934116269606</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>16.50278336909121</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>12.41660090590574</v>
+      </c>
+      <c r="P17">
+        <v>11.87999551135191</v>
+      </c>
+      <c r="Q17">
+        <v>11.33546763149639</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.80325673685002</v>
+        <v>21.14313004983709</v>
       </c>
       <c r="C18">
-        <v>15.02023285800003</v>
+        <v>14.41053597510932</v>
       </c>
       <c r="D18">
-        <v>3.9917596375964</v>
+        <v>5.283527840996483</v>
       </c>
       <c r="E18">
-        <v>14.25544974333267</v>
+        <v>10.15942922140276</v>
       </c>
       <c r="F18">
-        <v>22.0935969292849</v>
+        <v>16.28532464558175</v>
       </c>
       <c r="G18">
-        <v>2.03772934921625</v>
+        <v>19.36513882681588</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
+        <v>4.896390897899945</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>7.154386718474822</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>9.236782105925153</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>20.67833646133127</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>10.47759940250533</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>16.37619562933623</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>13.90611947436244</v>
+      </c>
+      <c r="P18">
+        <v>11.73825642941376</v>
+      </c>
+      <c r="Q18">
+        <v>11.69882866700223</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.70608183011547</v>
+        <v>20.98687231870027</v>
       </c>
       <c r="C19">
-        <v>14.96294973192269</v>
+        <v>14.41067405060628</v>
       </c>
       <c r="D19">
-        <v>3.983226000224598</v>
+        <v>5.129375713703618</v>
       </c>
       <c r="E19">
-        <v>14.1860064623319</v>
+        <v>12.45702645323505</v>
       </c>
       <c r="F19">
-        <v>22.01835490549909</v>
+        <v>16.89045963593674</v>
       </c>
       <c r="G19">
-        <v>2.038222978437733</v>
+        <v>20.47798664539952</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
+        <v>3.746241656129063</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>7.358240753819369</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>9.570812588961685</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>20.58930380109535</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>10.49398696947181</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>16.33350621671789</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>15.94924604494366</v>
+      </c>
+      <c r="P19">
+        <v>11.56863798674072</v>
+      </c>
+      <c r="Q19">
+        <v>12.20384481286869</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.14049572791453</v>
+        <v>21.26219481732473</v>
       </c>
       <c r="C20">
-        <v>15.2191562105609</v>
+        <v>14.73172300316266</v>
       </c>
       <c r="D20">
-        <v>4.021468500386945</v>
+        <v>5.003862431118435</v>
       </c>
       <c r="E20">
-        <v>14.49711644597891</v>
+        <v>17.53446734083253</v>
       </c>
       <c r="F20">
-        <v>22.3568458010421</v>
+        <v>18.07656257770757</v>
       </c>
       <c r="G20">
-        <v>2.036006986449539</v>
+        <v>22.53956863296303</v>
       </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
+        <v>3.165131966268909</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>7.684734977517205</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>10.03894553376681</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>20.98758051283956</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>10.42043246555338</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>16.52629274335461</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>19.34856692295374</v>
+      </c>
+      <c r="P20">
+        <v>11.31694637257065</v>
+      </c>
+      <c r="Q20">
+        <v>13.07750324742031</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.54994241823197</v>
+        <v>22.46940233583244</v>
       </c>
       <c r="C21">
-        <v>16.0524643154147</v>
+        <v>15.51136235455672</v>
       </c>
       <c r="D21">
-        <v>4.147095783064532</v>
+        <v>5.225102723311569</v>
       </c>
       <c r="E21">
-        <v>15.51852795733944</v>
+        <v>18.72325686901537</v>
       </c>
       <c r="F21">
-        <v>23.49172936840537</v>
+        <v>18.95627101412585</v>
       </c>
       <c r="G21">
-        <v>2.028651174477409</v>
+        <v>23.83704572921673</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+        <v>3.428674600515311</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>7.799375647076165</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>10.02582168531135</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>22.28451372629282</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>10.17661831138579</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>17.18569499604568</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>20.65148028165665</v>
+      </c>
+      <c r="P21">
+        <v>11.22983122909264</v>
+      </c>
+      <c r="Q21">
+        <v>13.5213042648289</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.43417583268622</v>
+        <v>23.22883805580291</v>
       </c>
       <c r="C22">
-        <v>16.57664641026231</v>
+        <v>15.99654029259324</v>
       </c>
       <c r="D22">
-        <v>4.226993347468507</v>
+        <v>5.373289824130709</v>
       </c>
       <c r="E22">
-        <v>16.16893161240944</v>
+        <v>19.22907731946989</v>
       </c>
       <c r="F22">
-        <v>24.23112148436691</v>
+        <v>19.48177468449988</v>
       </c>
       <c r="G22">
-        <v>2.023904446999631</v>
+        <v>24.5940113880764</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
+        <v>3.584855857810022</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>7.86419717266063</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>10.00426124150477</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>23.10196428097566</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>10.01971393020921</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>17.62511452389064</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>21.32907080778941</v>
+      </c>
+      <c r="P22">
+        <v>11.18629442504585</v>
+      </c>
+      <c r="Q22">
+        <v>13.77973896940393</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.96559305090578</v>
+        <v>22.82662701157605</v>
       </c>
       <c r="C23">
-        <v>16.29874402260432</v>
+        <v>15.7394474108092</v>
       </c>
       <c r="D23">
-        <v>4.184556914298996</v>
+        <v>5.294735537978505</v>
       </c>
       <c r="E23">
-        <v>15.82332369958148</v>
+        <v>18.96066331800187</v>
       </c>
       <c r="F23">
-        <v>23.83673405394787</v>
+        <v>19.201766166569</v>
       </c>
       <c r="G23">
-        <v>2.026432714743805</v>
+        <v>24.1909594825381</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
+        <v>3.50179157058197</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>7.829193561530376</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>10.01471679885809</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>22.66839887458503</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>10.10323498640988</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>17.38982639071599</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>20.96999796582208</v>
+      </c>
+      <c r="P23">
+        <v>11.20927125282201</v>
+      </c>
+      <c r="Q23">
+        <v>13.64138584511292</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.11682943404564</v>
+        <v>21.23477811280641</v>
       </c>
       <c r="C24">
-        <v>15.20519018455258</v>
+        <v>14.72506751718848</v>
       </c>
       <c r="D24">
-        <v>4.019378972680355</v>
+        <v>4.985496554026157</v>
       </c>
       <c r="E24">
-        <v>14.4801231299863</v>
+        <v>17.91017988503679</v>
       </c>
       <c r="F24">
-        <v>22.33826491192327</v>
+        <v>18.13177015941548</v>
       </c>
       <c r="G24">
-        <v>2.036128326151617</v>
+        <v>22.64421908020482</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
+        <v>3.180659572446962</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>7.70547299853708</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>10.07668975148673</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>20.96586547651297</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>10.42445915017549</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>16.5156612602149</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>19.55367246027032</v>
+      </c>
+      <c r="P24">
+        <v>11.30188781977914</v>
+      </c>
+      <c r="Q24">
+        <v>13.12690141153514</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.96136003624924</v>
+        <v>19.37066524831245</v>
       </c>
       <c r="C25">
-        <v>13.93755803591033</v>
+        <v>13.54479586272324</v>
       </c>
       <c r="D25">
-        <v>3.8322336087865</v>
+        <v>4.627262114519777</v>
       </c>
       <c r="E25">
-        <v>13.09726557316003</v>
+        <v>16.70612592896434</v>
       </c>
       <c r="F25">
-        <v>20.71589415850354</v>
+        <v>16.96207916129836</v>
       </c>
       <c r="G25">
-        <v>2.046885591652591</v>
+        <v>20.93820450274034</v>
       </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
+        <v>2.819612983154101</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>7.590285938290315</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>10.18677573856203</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.99641459143799</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>10.78166127179465</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>15.61071641742002</v>
+        <v>17.90619822825052</v>
+      </c>
+      <c r="P25">
+        <v>11.41310004446293</v>
+      </c>
+      <c r="Q25">
+        <v>12.59384885737304</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_59/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_59/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1205 +421,1355 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.87114317366413</v>
+        <v>17.62147691826868</v>
       </c>
       <c r="C2">
-        <v>12.6029171908481</v>
+        <v>12.96416262830778</v>
       </c>
       <c r="D2">
-        <v>4.342782334204944</v>
+        <v>4.428036704160132</v>
       </c>
       <c r="E2">
-        <v>15.76055504153692</v>
+        <v>15.64102666510938</v>
       </c>
       <c r="F2">
-        <v>16.09320662676298</v>
+        <v>15.93395993562724</v>
       </c>
       <c r="G2">
-        <v>19.65699731443782</v>
+        <v>18.7436027258519</v>
       </c>
       <c r="H2">
-        <v>2.540466724059054</v>
+        <v>2.496020755879409</v>
       </c>
       <c r="J2">
-        <v>7.520430371516236</v>
+        <v>8.237671771405704</v>
       </c>
       <c r="K2">
-        <v>10.30059661229976</v>
+        <v>10.25385412265345</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>10.25275518824053</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>5.040297743935737</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>16.59139386292445</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>11.50414279692908</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>12.22172127468257</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>16.58975661976659</v>
+      </c>
+      <c r="R2">
+        <v>11.60341160469455</v>
+      </c>
+      <c r="S2">
+        <v>12.14551910574621</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.77572743568931</v>
+        <v>16.57369959314845</v>
       </c>
       <c r="C3">
-        <v>11.92018377066463</v>
+        <v>12.1902005044632</v>
       </c>
       <c r="D3">
-        <v>4.137448632994883</v>
+        <v>4.208376508924942</v>
       </c>
       <c r="E3">
-        <v>15.08436859159525</v>
+        <v>14.97903545319497</v>
       </c>
       <c r="F3">
-        <v>15.50315477887679</v>
+        <v>15.39453145753819</v>
       </c>
       <c r="G3">
-        <v>18.77795122334492</v>
+        <v>17.90660089429284</v>
       </c>
       <c r="H3">
-        <v>2.342649548362465</v>
+        <v>2.305282610716307</v>
       </c>
       <c r="J3">
-        <v>7.481990325339546</v>
+        <v>8.191562005894887</v>
       </c>
       <c r="K3">
-        <v>10.39605709660846</v>
+        <v>10.3681688784073</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>10.43474672945881</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>4.983148496691885</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>15.6380037867148</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>11.57130132170575</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>11.98295336154721</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>15.63820164912954</v>
+      </c>
+      <c r="R3">
+        <v>11.64754541652653</v>
+      </c>
+      <c r="S3">
+        <v>11.94160375146396</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.06421898637408</v>
+        <v>15.89307711841851</v>
       </c>
       <c r="C4">
-        <v>11.47958534957041</v>
+        <v>11.69020420020676</v>
       </c>
       <c r="D4">
-        <v>4.005363189997251</v>
+        <v>4.067071983361914</v>
       </c>
       <c r="E4">
-        <v>14.65239537003865</v>
+        <v>14.5564046265695</v>
       </c>
       <c r="F4">
-        <v>15.14164041779445</v>
+        <v>15.06365538492349</v>
       </c>
       <c r="G4">
-        <v>18.23491915577545</v>
+        <v>17.38981251367327</v>
       </c>
       <c r="H4">
-        <v>2.216823455505065</v>
+        <v>2.183913746105803</v>
       </c>
       <c r="J4">
-        <v>7.462622417068773</v>
+        <v>8.165150030963906</v>
       </c>
       <c r="K4">
-        <v>10.46304122759793</v>
+        <v>10.44465370515378</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>10.55168518574105</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>4.980931976333655</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.02247361249802</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>11.6151528987195</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>11.84318534922985</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>15.02375299024679</v>
+      </c>
+      <c r="R4">
+        <v>11.67749253639961</v>
+      </c>
+      <c r="S4">
+        <v>11.82206279659052</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.76452591740508</v>
+        <v>15.60638800151648</v>
       </c>
       <c r="C5">
-        <v>11.29475699003537</v>
+        <v>11.48033487739707</v>
       </c>
       <c r="D5">
-        <v>3.950058839220373</v>
+        <v>4.007909195914086</v>
       </c>
       <c r="E5">
-        <v>14.47225937204501</v>
+        <v>14.38023769087244</v>
       </c>
       <c r="F5">
-        <v>14.99474267106419</v>
+        <v>14.92908658747404</v>
       </c>
       <c r="G5">
-        <v>18.01314623922179</v>
+        <v>17.17879384679668</v>
       </c>
       <c r="H5">
-        <v>2.164435866837337</v>
+        <v>2.133371639457947</v>
       </c>
       <c r="J5">
-        <v>7.455770148815636</v>
+        <v>8.15485802495372</v>
       </c>
       <c r="K5">
-        <v>10.49234755752261</v>
+        <v>10.4773380015703</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>10.60065872490049</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>4.988221970144525</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>14.76418112937042</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>11.63366996972236</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>11.78797604505316</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>14.76589295184646</v>
+      </c>
+      <c r="R5">
+        <v>11.69040184432009</v>
+      </c>
+      <c r="S5">
+        <v>11.77478183785481</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.71417487422857</v>
+        <v>15.5582216613208</v>
       </c>
       <c r="C6">
-        <v>11.26375079318563</v>
+        <v>11.44512072501805</v>
       </c>
       <c r="D6">
-        <v>3.940787377179953</v>
+        <v>3.997991066867813</v>
       </c>
       <c r="E6">
-        <v>14.44210395871448</v>
+        <v>14.35075124609262</v>
       </c>
       <c r="F6">
-        <v>14.97038279988302</v>
+        <v>14.90676309695638</v>
       </c>
       <c r="G6">
-        <v>17.97630264460173</v>
+        <v>17.14373807642932</v>
       </c>
       <c r="H6">
-        <v>2.155669337781055</v>
+        <v>2.124913347109521</v>
       </c>
       <c r="J6">
-        <v>7.454694423578112</v>
+        <v>8.153177297080697</v>
       </c>
       <c r="K6">
-        <v>10.49733253066736</v>
+        <v>10.48285489458725</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>10.60887088156441</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>4.989922303811811</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>14.72084551369614</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>11.63678350955825</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>11.77891481954668</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>14.72262873850811</v>
+      </c>
+      <c r="R6">
+        <v>11.69258773994518</v>
+      </c>
+      <c r="S6">
+        <v>11.76701758092681</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.06021662423408</v>
+        <v>15.8844385714637</v>
       </c>
       <c r="C7">
-        <v>11.47711392356383</v>
+        <v>11.67899447460284</v>
       </c>
       <c r="D7">
-        <v>4.004623274657025</v>
+        <v>4.069202538657412</v>
       </c>
       <c r="E7">
-        <v>14.64998243579413</v>
+        <v>14.55547747468155</v>
       </c>
       <c r="F7">
-        <v>15.13965728426809</v>
+        <v>15.04805131697295</v>
       </c>
       <c r="G7">
-        <v>18.23192972102822</v>
+        <v>17.49433659071039</v>
       </c>
       <c r="H7">
-        <v>2.216121461525391</v>
+        <v>2.182880455613186</v>
       </c>
       <c r="J7">
-        <v>7.462525826183104</v>
+        <v>8.122834762925923</v>
       </c>
       <c r="K7">
-        <v>10.46342844837897</v>
+        <v>10.44035853916063</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>10.54818755778032</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>4.977908694272521</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.01902020799485</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>11.61540001935113</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>11.84243366965211</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>15.01754603381179</v>
+      </c>
+      <c r="R7">
+        <v>11.67887727170715</v>
+      </c>
+      <c r="S7">
+        <v>11.81101400355159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.50153932966244</v>
+        <v>17.25314508682957</v>
       </c>
       <c r="C8">
-        <v>12.37200464632238</v>
+        <v>12.6763799879466</v>
       </c>
       <c r="D8">
-        <v>4.273248370193</v>
+        <v>4.362870858709728</v>
       </c>
       <c r="E8">
-        <v>15.5309565822948</v>
+        <v>15.42088564971272</v>
       </c>
       <c r="F8">
-        <v>15.88972592380407</v>
+        <v>15.70406337055782</v>
       </c>
       <c r="G8">
-        <v>19.35478170799425</v>
+        <v>18.79295416671116</v>
       </c>
       <c r="H8">
-        <v>2.473156439891257</v>
+        <v>2.430025512706598</v>
       </c>
       <c r="J8">
-        <v>7.506283112717798</v>
+        <v>8.08385092215743</v>
       </c>
       <c r="K8">
-        <v>10.33171545749418</v>
+        <v>10.27623263000693</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>10.3020470200273</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>5.000999152719339</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>16.2689850721039</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>11.52674948270242</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>12.13799384859837</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>16.25945213920362</v>
+      </c>
+      <c r="R8">
+        <v>11.62236320409363</v>
+      </c>
+      <c r="S8">
+        <v>12.0402056407965</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.01830156968863</v>
+        <v>19.65784306695343</v>
       </c>
       <c r="C9">
-        <v>13.95379201067028</v>
+        <v>14.46286480602216</v>
       </c>
       <c r="D9">
-        <v>4.751192366400234</v>
+        <v>4.875616590342704</v>
       </c>
       <c r="E9">
-        <v>17.12104197893412</v>
+        <v>16.9798554711612</v>
       </c>
       <c r="F9">
-        <v>17.35770224476349</v>
+        <v>17.03695643702217</v>
       </c>
       <c r="G9">
-        <v>21.5173326699604</v>
+        <v>20.9058445798548</v>
       </c>
       <c r="H9">
-        <v>2.94325370511319</v>
+        <v>2.882833854076841</v>
       </c>
       <c r="J9">
-        <v>7.6267103456105</v>
+        <v>8.174254855812913</v>
       </c>
       <c r="K9">
-        <v>10.14431346199387</v>
+        <v>10.02465419205134</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>9.875193754352523</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>5.314535732003945</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>18.47707229501717</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>11.37417936331507</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>12.77034799433337</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>18.46139423440064</v>
+      </c>
+      <c r="R9">
+        <v>11.53027907599383</v>
+      </c>
+      <c r="S9">
+        <v>12.57246958190395</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.68717632273644</v>
+        <v>21.23361888205699</v>
       </c>
       <c r="C10">
-        <v>14.99919051938358</v>
+        <v>15.59649259032428</v>
       </c>
       <c r="D10">
-        <v>5.089669576574857</v>
+        <v>5.250385197364499</v>
       </c>
       <c r="E10">
-        <v>17.7085221952137</v>
+        <v>17.55200160332562</v>
       </c>
       <c r="F10">
-        <v>18.33678496164951</v>
+        <v>17.85536358195846</v>
       </c>
       <c r="G10">
-        <v>22.91048173707522</v>
+        <v>22.7739727858192</v>
       </c>
       <c r="H10">
-        <v>3.245390982477196</v>
+        <v>3.171465680453591</v>
       </c>
       <c r="J10">
-        <v>7.709204770329685</v>
+        <v>7.997925258882244</v>
       </c>
       <c r="K10">
-        <v>10.00901033537846</v>
+        <v>9.809294801007765</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>9.545424587936663</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>5.616783112966737</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>19.6656614891962</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>11.29699766286821</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>13.19402766922584</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>19.63278287393081</v>
+      </c>
+      <c r="R10">
+        <v>11.50765963317204</v>
+      </c>
+      <c r="S10">
+        <v>12.8689154976789</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.48219987298349</v>
+        <v>21.9808105151517</v>
       </c>
       <c r="C11">
-        <v>15.38427513903376</v>
+        <v>15.89521032808563</v>
       </c>
       <c r="D11">
-        <v>5.394241163336326</v>
+        <v>5.586768046368105</v>
       </c>
       <c r="E11">
-        <v>14.00418574650235</v>
+        <v>13.81795510401097</v>
       </c>
       <c r="F11">
-        <v>18.0284007005653</v>
+        <v>17.4049586629646</v>
       </c>
       <c r="G11">
-        <v>22.18765906362436</v>
+        <v>23.1832204069865</v>
       </c>
       <c r="H11">
-        <v>3.778460576543734</v>
+        <v>3.711602492655598</v>
       </c>
       <c r="J11">
-        <v>7.503217105755667</v>
+        <v>7.364568355244851</v>
       </c>
       <c r="K11">
-        <v>9.547572192682647</v>
+        <v>9.330207436328934</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>9.185775762657464</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>5.366251474050816</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>17.76534204869368</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>11.46447897198605</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>12.77706769120764</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>17.70639024687435</v>
+      </c>
+      <c r="R11">
+        <v>11.71849154260365</v>
+      </c>
+      <c r="S11">
+        <v>12.34488152101084</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.81635480296765</v>
+        <v>22.30650380083841</v>
       </c>
       <c r="C12">
-        <v>15.49824401725847</v>
+        <v>15.94147169253801</v>
       </c>
       <c r="D12">
-        <v>5.584010113035771</v>
+        <v>5.787596739726288</v>
       </c>
       <c r="E12">
-        <v>11.3364706935992</v>
+        <v>11.10532303317349</v>
       </c>
       <c r="F12">
-        <v>17.54986661609411</v>
+        <v>16.88177023517818</v>
       </c>
       <c r="G12">
-        <v>21.26829114537414</v>
+        <v>22.82243746837405</v>
       </c>
       <c r="H12">
-        <v>4.769272237207307</v>
+        <v>4.716863899821839</v>
       </c>
       <c r="J12">
-        <v>7.304656668408003</v>
+        <v>7.024429528524536</v>
       </c>
       <c r="K12">
-        <v>9.179512353234678</v>
+        <v>8.987233665826988</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>8.972149185493103</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>5.090337310892664</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.90008264166427</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>11.63915403058173</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>12.32146050483835</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>15.83054918682995</v>
+      </c>
+      <c r="R12">
+        <v>11.91236296565255</v>
+      </c>
+      <c r="S12">
+        <v>11.86135056076595</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.8272613894954</v>
+        <v>22.34798152641954</v>
       </c>
       <c r="C13">
-        <v>15.41408895687222</v>
+        <v>15.8150866166385</v>
       </c>
       <c r="D13">
-        <v>5.701482303942066</v>
+        <v>5.894196811329657</v>
       </c>
       <c r="E13">
-        <v>9.733078152864632</v>
+        <v>9.459356309589783</v>
       </c>
       <c r="F13">
-        <v>16.89489140029107</v>
+        <v>16.28453632470273</v>
       </c>
       <c r="G13">
-        <v>20.10796525625889</v>
+        <v>21.60426767506397</v>
       </c>
       <c r="H13">
-        <v>5.929482603184136</v>
+        <v>5.88986016327955</v>
       </c>
       <c r="J13">
-        <v>7.097820651447176</v>
+        <v>6.930322238284502</v>
       </c>
       <c r="K13">
-        <v>8.862123175186303</v>
+        <v>8.737425293074359</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>8.848628653682708</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>4.788323303205734</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>13.89496500866272</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>11.82272616453395</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>11.79861216818546</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>13.83089203140374</v>
+      </c>
+      <c r="R13">
+        <v>12.09021374481674</v>
+      </c>
+      <c r="S13">
+        <v>11.39410263998552</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.68913949539216</v>
+        <v>22.24896140800707</v>
       </c>
       <c r="C14">
-        <v>15.26481966474977</v>
+        <v>15.64663693377834</v>
       </c>
       <c r="D14">
-        <v>5.752347580484169</v>
+        <v>5.927407543879191</v>
       </c>
       <c r="E14">
-        <v>9.534816113114656</v>
+        <v>9.258568261171648</v>
       </c>
       <c r="F14">
-        <v>16.34867831278656</v>
+        <v>15.82452945353539</v>
       </c>
       <c r="G14">
-        <v>19.17034880903058</v>
+        <v>20.35357418694334</v>
       </c>
       <c r="H14">
-        <v>6.801666239809583</v>
+        <v>6.769339458364636</v>
       </c>
       <c r="J14">
-        <v>6.949186655260842</v>
+        <v>6.960456233084209</v>
       </c>
       <c r="K14">
-        <v>8.666326927745613</v>
+        <v>8.604475266149379</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>8.797911408963659</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>4.566900174942199</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>12.40477631055604</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>11.95447686645988</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>11.39889713957988</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>12.35139226550204</v>
+      </c>
+      <c r="R14">
+        <v>12.2058166608135</v>
+      </c>
+      <c r="S14">
+        <v>11.06981379104585</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.58555883897344</v>
+        <v>22.16275879373222</v>
       </c>
       <c r="C15">
-        <v>15.1852241602965</v>
+        <v>15.56650689805378</v>
       </c>
       <c r="D15">
-        <v>5.749260294431082</v>
+        <v>5.915662765596346</v>
       </c>
       <c r="E15">
-        <v>9.617209507395479</v>
+        <v>9.347950074519897</v>
       </c>
       <c r="F15">
-        <v>16.17784881519216</v>
+        <v>15.69445813195686</v>
       </c>
       <c r="G15">
-        <v>18.88874217219938</v>
+        <v>19.87810222732868</v>
       </c>
       <c r="H15">
-        <v>7.001964841543269</v>
+        <v>6.971509791521213</v>
       </c>
       <c r="J15">
-        <v>6.91229641115096</v>
+        <v>7.010075525757506</v>
       </c>
       <c r="K15">
-        <v>8.631171799587708</v>
+        <v>8.59079284327559</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>8.800971888437699</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>4.509466867147213</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>12.00819830541247</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>11.98543563108554</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>11.28860689346018</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>11.96033131343228</v>
+      </c>
+      <c r="R15">
+        <v>12.22774824045721</v>
+      </c>
+      <c r="S15">
+        <v>10.99334853187927</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.90576048724969</v>
+        <v>21.55085837932869</v>
       </c>
       <c r="C16">
-        <v>14.76875134450114</v>
+        <v>15.17967488815916</v>
       </c>
       <c r="D16">
-        <v>5.593790017187064</v>
+        <v>5.723626188666174</v>
       </c>
       <c r="E16">
-        <v>9.551291300178685</v>
+        <v>9.309318066458948</v>
       </c>
       <c r="F16">
-        <v>15.85155914840558</v>
+        <v>15.53374782393822</v>
       </c>
       <c r="G16">
-        <v>18.44304058238948</v>
+        <v>18.4582219040173</v>
       </c>
       <c r="H16">
-        <v>6.734684933586589</v>
+        <v>6.707418063268065</v>
       </c>
       <c r="J16">
-        <v>6.914579995127072</v>
+        <v>7.386727171992134</v>
       </c>
       <c r="K16">
-        <v>8.75532654445974</v>
+        <v>8.767012428614343</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>8.951820420073247</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>4.481126653036751</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>11.77130213936434</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>11.96417724396388</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>11.19072608256465</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>11.74775889418235</v>
+      </c>
+      <c r="R16">
+        <v>12.16419793921218</v>
+      </c>
+      <c r="S16">
+        <v>11.02397774368834</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.44911624328195</v>
+        <v>21.11944368426904</v>
       </c>
       <c r="C17">
-        <v>14.5255087908261</v>
+        <v>14.95943840900592</v>
       </c>
       <c r="D17">
-        <v>5.443771308900817</v>
+        <v>5.559275242246003</v>
       </c>
       <c r="E17">
-        <v>9.439753895354675</v>
+        <v>9.205976041485576</v>
       </c>
       <c r="F17">
-        <v>15.90448796596392</v>
+        <v>15.64848726804771</v>
       </c>
       <c r="G17">
-        <v>18.62574969792326</v>
+        <v>18.19679495408216</v>
       </c>
       <c r="H17">
-        <v>6.017690077397665</v>
+        <v>5.989447087765104</v>
       </c>
       <c r="J17">
-        <v>6.996955706502185</v>
+        <v>7.625134144896917</v>
       </c>
       <c r="K17">
-        <v>8.953615294775167</v>
+        <v>8.96876917199328</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>9.101216245429795</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>4.571512587560282</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>12.41660090590574</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>11.87999551135191</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>11.33546763149639</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>12.403198707799</v>
+      </c>
+      <c r="R17">
+        <v>12.06088478315732</v>
+      </c>
+      <c r="S17">
+        <v>11.21247420814542</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.14313004983709</v>
+        <v>20.81206318640258</v>
       </c>
       <c r="C18">
-        <v>14.41053597510932</v>
+        <v>14.87912299563005</v>
       </c>
       <c r="D18">
-        <v>5.283527840996483</v>
+        <v>5.39690061906608</v>
       </c>
       <c r="E18">
-        <v>10.15942922140276</v>
+        <v>9.938512012818478</v>
       </c>
       <c r="F18">
-        <v>16.28532464558175</v>
+        <v>16.03445918627707</v>
       </c>
       <c r="G18">
-        <v>19.36513882681588</v>
+        <v>18.71632939885652</v>
       </c>
       <c r="H18">
-        <v>4.896390897899945</v>
+        <v>4.862102221711854</v>
       </c>
       <c r="J18">
-        <v>7.154386718474822</v>
+        <v>7.832593603388331</v>
       </c>
       <c r="K18">
-        <v>9.236782105925153</v>
+        <v>9.225088984462278</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>9.274154064465565</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>4.772689309776297</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>13.90611947436244</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>11.73825642941376</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>11.69882866700223</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>13.89627297759053</v>
+      </c>
+      <c r="R18">
+        <v>11.91217740633308</v>
+      </c>
+      <c r="S18">
+        <v>11.57354396439081</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.98687231870027</v>
+        <v>20.63644255265364</v>
       </c>
       <c r="C19">
-        <v>14.41067405060628</v>
+        <v>14.92669515515798</v>
       </c>
       <c r="D19">
-        <v>5.129375713703618</v>
+        <v>5.248072288328085</v>
       </c>
       <c r="E19">
-        <v>12.45702645323505</v>
+        <v>12.26478138339319</v>
       </c>
       <c r="F19">
-        <v>16.89045963593674</v>
+        <v>16.61029381063247</v>
       </c>
       <c r="G19">
-        <v>20.47798664539952</v>
+        <v>19.72660706376966</v>
       </c>
       <c r="H19">
-        <v>3.746241656129063</v>
+        <v>3.698926676392433</v>
       </c>
       <c r="J19">
-        <v>7.358240753819369</v>
+        <v>8.028116336202858</v>
       </c>
       <c r="K19">
-        <v>9.570812588961685</v>
+        <v>9.513073034169809</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>9.457197158257904</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>5.049488052957707</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>15.94924604494366</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>11.56863798674072</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>12.20384481286869</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>15.93914923865676</v>
+      </c>
+      <c r="R19">
+        <v>11.74257321269374</v>
+      </c>
+      <c r="S19">
+        <v>12.04873184185619</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.26219481732473</v>
+        <v>20.84608068583561</v>
       </c>
       <c r="C20">
-        <v>14.73172300316266</v>
+        <v>15.33041893959705</v>
       </c>
       <c r="D20">
-        <v>5.003862431118435</v>
+        <v>5.146486212224159</v>
       </c>
       <c r="E20">
-        <v>17.53446734083253</v>
+        <v>17.37704308931701</v>
       </c>
       <c r="F20">
-        <v>18.07656257770757</v>
+        <v>17.6793976306833</v>
       </c>
       <c r="G20">
-        <v>22.53956863296303</v>
+        <v>21.96930209568835</v>
       </c>
       <c r="H20">
-        <v>3.165131966268909</v>
+        <v>3.095728798399368</v>
       </c>
       <c r="J20">
-        <v>7.684734977517205</v>
+        <v>8.182972038086541</v>
       </c>
       <c r="K20">
-        <v>10.03894553376681</v>
+        <v>9.878494679466924</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>9.638979645966565</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>5.545211483603043</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>19.34856692295374</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>11.31694637257065</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>13.07750324742031</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>19.327970434485</v>
+      </c>
+      <c r="R20">
+        <v>11.50769437781559</v>
+      </c>
+      <c r="S20">
+        <v>12.82030495651726</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.46940233583244</v>
+        <v>21.9109493757168</v>
       </c>
       <c r="C21">
-        <v>15.51136235455672</v>
+        <v>16.06156158457751</v>
       </c>
       <c r="D21">
-        <v>5.225102723311569</v>
+        <v>5.440927512147454</v>
       </c>
       <c r="E21">
-        <v>18.72325686901537</v>
+        <v>18.58450317664991</v>
       </c>
       <c r="F21">
-        <v>18.95627101412585</v>
+        <v>18.21148521998482</v>
       </c>
       <c r="G21">
-        <v>23.83704572921673</v>
+        <v>25.20412174832038</v>
       </c>
       <c r="H21">
-        <v>3.428674600515311</v>
+        <v>3.34340707021365</v>
       </c>
       <c r="J21">
-        <v>7.799375647076165</v>
+        <v>7.391197555312468</v>
       </c>
       <c r="K21">
-        <v>10.02582168531135</v>
+        <v>9.69654141268518</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>9.379767173944625</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>5.783096307119437</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>20.65148028165665</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>11.22983122909264</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>13.5213042648289</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>20.57744350355426</v>
+      </c>
+      <c r="R21">
+        <v>11.49226913331808</v>
+      </c>
+      <c r="S21">
+        <v>12.97940452486055</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.22883805580291</v>
+        <v>22.57826662433141</v>
       </c>
       <c r="C22">
-        <v>15.99654029259324</v>
+        <v>16.50443381846194</v>
       </c>
       <c r="D22">
-        <v>5.373289824130709</v>
+        <v>5.63802883731864</v>
       </c>
       <c r="E22">
-        <v>19.22907731946989</v>
+        <v>19.10406570680701</v>
       </c>
       <c r="F22">
-        <v>19.48177468449988</v>
+        <v>18.50234704541133</v>
       </c>
       <c r="G22">
-        <v>24.5940113880764</v>
+        <v>27.28875949057485</v>
       </c>
       <c r="H22">
-        <v>3.584855857810022</v>
+        <v>3.489564239296714</v>
       </c>
       <c r="J22">
-        <v>7.86419717266063</v>
+        <v>6.877340978603735</v>
       </c>
       <c r="K22">
-        <v>10.00426124150477</v>
+        <v>9.556267175608777</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>9.202322593147509</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>5.926704335138924</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>21.32907080778941</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>11.18629442504585</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>13.77973896940393</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>21.21864203782654</v>
+      </c>
+      <c r="R22">
+        <v>11.49984668485138</v>
+      </c>
+      <c r="S22">
+        <v>13.04207130482057</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.82662701157605</v>
+        <v>22.23423485200096</v>
       </c>
       <c r="C23">
-        <v>15.7394474108092</v>
+        <v>16.28657339389135</v>
       </c>
       <c r="D23">
-        <v>5.294735537978505</v>
+        <v>5.527312961093914</v>
       </c>
       <c r="E23">
-        <v>18.96066331800187</v>
+        <v>18.82454154550374</v>
       </c>
       <c r="F23">
-        <v>19.201766166569</v>
+        <v>18.37732075208307</v>
       </c>
       <c r="G23">
-        <v>24.1909594825381</v>
+        <v>25.96174019030595</v>
       </c>
       <c r="H23">
-        <v>3.50179157058197</v>
+        <v>3.412446014068876</v>
       </c>
       <c r="J23">
-        <v>7.829193561530376</v>
+        <v>7.230915654683188</v>
       </c>
       <c r="K23">
-        <v>10.01471679885809</v>
+        <v>9.643434751148732</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>9.303257114351931</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>5.86196336160561</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>20.96999796582208</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>11.20927125282201</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>13.64138584511292</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>20.88438741035671</v>
+      </c>
+      <c r="R23">
+        <v>11.4911695238354</v>
+      </c>
+      <c r="S23">
+        <v>13.03307835491326</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.23477811280641</v>
+        <v>20.81760024293456</v>
       </c>
       <c r="C24">
-        <v>14.72506751718848</v>
+        <v>15.32880939758309</v>
       </c>
       <c r="D24">
-        <v>4.985496554026157</v>
+        <v>5.128144557710078</v>
       </c>
       <c r="E24">
-        <v>17.91017988503679</v>
+        <v>17.75479591711159</v>
       </c>
       <c r="F24">
-        <v>18.13177015941548</v>
+        <v>17.73391393623075</v>
       </c>
       <c r="G24">
-        <v>22.64421908020482</v>
+        <v>22.05113956289616</v>
       </c>
       <c r="H24">
-        <v>3.180659572446962</v>
+        <v>3.111157412529746</v>
       </c>
       <c r="J24">
-        <v>7.70547299853708</v>
+        <v>8.208711844154919</v>
       </c>
       <c r="K24">
-        <v>10.07668975148673</v>
+        <v>9.912266187282411</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>9.662111323565604</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>5.572968076291192</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>19.55367246027032</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>11.30188781977914</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>13.12690141153514</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>19.53334802965764</v>
+      </c>
+      <c r="R24">
+        <v>11.49170957871609</v>
+      </c>
+      <c r="S24">
+        <v>12.86850487423688</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.37066524831245</v>
+        <v>19.04500553045316</v>
       </c>
       <c r="C25">
-        <v>13.54479586272324</v>
+        <v>14.01174615939125</v>
       </c>
       <c r="D25">
-        <v>4.627262114519777</v>
+        <v>4.738978356371534</v>
       </c>
       <c r="E25">
-        <v>16.70612592896434</v>
+        <v>16.5709298931895</v>
       </c>
       <c r="F25">
-        <v>16.96207916129836</v>
+        <v>16.69556697961731</v>
       </c>
       <c r="G25">
-        <v>20.93820450274034</v>
+        <v>20.20596832218872</v>
       </c>
       <c r="H25">
-        <v>2.819612983154101</v>
+        <v>2.764229635591964</v>
       </c>
       <c r="J25">
-        <v>7.590285938290315</v>
+        <v>8.20588915265526</v>
       </c>
       <c r="K25">
-        <v>10.18677573856203</v>
+        <v>10.09330872945825</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>9.991068974820049</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>5.209773739048077</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>17.90619822825052</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>11.41310004446293</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>12.59384885737304</v>
+        <v>17.89560832214408</v>
+      </c>
+      <c r="R25">
+        <v>11.55063443342445</v>
+      </c>
+      <c r="S25">
+        <v>12.43782428835793</v>
       </c>
     </row>
   </sheetData>
